--- a/common/src/main/webapp/imports/export-田伟-82.xlsx
+++ b/common/src/main/webapp/imports/export-田伟-82.xlsx
@@ -2405,12 +2405,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2420,7 +2420,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2440,135 +2562,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2579,7 +2572,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,7 +2632,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,19 +2686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2627,7 +2698,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2651,115 +2752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2770,15 +2763,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2797,17 +2781,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2838,6 +2825,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2852,175 +2863,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3028,6 +3021,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3390,7 +3386,7 @@
   <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D6" sqref="A1:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -3419,51 +3415,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:31">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="R1" s="1"/>
       <c r="X1" t="s">
         <v>12</v>
       </c>
@@ -3490,51 +3489,54 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:31">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>400</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>13840485398</v>
       </c>
+      <c r="R2" s="1"/>
       <c r="X2" t="s">
         <v>12</v>
       </c>
@@ -3561,54 +3563,56 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:31">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>100</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>25761131</v>
       </c>
+      <c r="R3" s="1"/>
       <c r="X3" t="s">
         <v>12</v>
       </c>
@@ -3635,54 +3639,56 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:31">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>130</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="R4" s="1"/>
       <c r="X4" t="s">
         <v>12</v>
       </c>
@@ -3709,54 +3715,56 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:31">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>130</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>13889387566</v>
       </c>
+      <c r="R5" s="1"/>
       <c r="X5" t="s">
         <v>12</v>
       </c>
@@ -3783,58 +3791,58 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:31">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>100</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="X6" t="s">
@@ -3860,54 +3868,56 @@
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:31">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>300</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="R7" s="1"/>
       <c r="X7" t="s">
         <v>12</v>
       </c>
@@ -3934,54 +3944,56 @@
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:31">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>500</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>89708457</v>
       </c>
+      <c r="R8" s="1"/>
       <c r="X8" t="s">
         <v>12</v>
       </c>
@@ -4008,51 +4020,54 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:31">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>13840235715</v>
       </c>
+      <c r="R9" s="1"/>
       <c r="X9" t="s">
         <v>12</v>
       </c>
@@ -4079,54 +4094,56 @@
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:31">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>650</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="R10" s="1"/>
       <c r="X10" t="s">
         <v>12</v>
       </c>
@@ -4153,54 +4170,56 @@
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:31">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>300</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="3">
         <v>24156749</v>
       </c>
+      <c r="R11" s="1"/>
       <c r="X11" t="s">
         <v>12</v>
       </c>
@@ -4227,54 +4246,56 @@
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:31">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>400</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="3">
         <v>24156749</v>
       </c>
+      <c r="R12" s="1"/>
       <c r="X12" t="s">
         <v>12</v>
       </c>
@@ -4301,54 +4322,56 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:31">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>167</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="3">
         <v>89867588</v>
       </c>
+      <c r="R13" s="1"/>
       <c r="X13" t="s">
         <v>12</v>
       </c>
@@ -4375,54 +4398,56 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:31">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>500</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="3">
         <v>89649896</v>
       </c>
+      <c r="R14" s="1"/>
       <c r="X14" t="s">
         <v>12</v>
       </c>
@@ -4449,54 +4474,56 @@
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:31">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>500</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="3">
         <v>89649896</v>
       </c>
+      <c r="R15" s="1"/>
       <c r="X15" t="s">
         <v>12</v>
       </c>
@@ -4523,54 +4550,56 @@
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:31">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>500</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="3">
         <v>88012418</v>
       </c>
+      <c r="R16" s="1"/>
       <c r="X16" t="s">
         <v>12</v>
       </c>
@@ -4597,54 +4626,56 @@
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:31">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>600</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="3">
         <v>13942150568</v>
       </c>
+      <c r="R17" s="1"/>
       <c r="X17" t="s">
         <v>12</v>
       </c>
@@ -4671,51 +4702,54 @@
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:31">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O18" t="s">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="3">
         <v>88785028</v>
       </c>
+      <c r="R18" s="1"/>
       <c r="X18" t="s">
         <v>12</v>
       </c>
@@ -4742,54 +4776,56 @@
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:31">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>1456</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="3">
         <v>23756118</v>
       </c>
+      <c r="R19" s="1"/>
       <c r="X19" t="s">
         <v>12</v>
       </c>
@@ -4816,54 +4852,56 @@
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:31">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>100</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="3">
         <v>23756118</v>
       </c>
+      <c r="R20" s="1"/>
       <c r="X20" t="s">
         <v>12</v>
       </c>
@@ -4890,48 +4928,52 @@
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:31">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O21" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="3">
         <v>15940066575</v>
       </c>
+      <c r="R21" s="1"/>
       <c r="X21" t="s">
         <v>12</v>
       </c>
@@ -4958,54 +5000,56 @@
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:31">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>142</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="3">
         <v>13940532822</v>
       </c>
+      <c r="R22" s="1"/>
       <c r="X22" t="s">
         <v>12</v>
       </c>
@@ -5032,51 +5076,54 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:31">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O23" t="s">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="3">
         <v>23857117</v>
       </c>
+      <c r="R23" s="1"/>
       <c r="X23" t="s">
         <v>12</v>
       </c>
@@ -5103,54 +5150,56 @@
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:31">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>450</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="3">
         <v>13804062562</v>
       </c>
+      <c r="R24" s="1"/>
       <c r="X24" t="s">
         <v>12</v>
       </c>
@@ -5177,54 +5226,56 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:31">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>148</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="3">
         <v>15804077974</v>
       </c>
+      <c r="R25" s="1"/>
       <c r="X25" t="s">
         <v>12</v>
       </c>
@@ -5251,55 +5302,56 @@
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:31">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L26" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>180</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="3">
         <v>22508222</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="1" t="s">
         <v>255</v>
       </c>
       <c r="X26" t="s">
@@ -5325,54 +5377,56 @@
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:31">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>142</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="R27" s="1"/>
       <c r="X27" t="s">
         <v>12</v>
       </c>
@@ -5399,51 +5453,54 @@
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:31">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O28" t="s">
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="3">
         <v>2488733501</v>
       </c>
+      <c r="R28" s="1"/>
       <c r="X28" t="s">
         <v>12</v>
       </c>
@@ -5470,51 +5527,54 @@
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:31">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O29" t="s">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="3">
         <v>18802403678</v>
       </c>
+      <c r="R29" s="1"/>
       <c r="X29" t="s">
         <v>12</v>
       </c>
@@ -5541,54 +5601,56 @@
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:31">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>420</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="3">
         <v>89650888</v>
       </c>
+      <c r="R30" s="1"/>
       <c r="X30" t="s">
         <v>12</v>
       </c>
@@ -5615,54 +5677,56 @@
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:31">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>410</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="R31" s="1"/>
       <c r="X31" t="s">
         <v>12</v>
       </c>
@@ -5689,54 +5753,56 @@
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:31">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>150</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="3">
         <v>25305178</v>
       </c>
+      <c r="R32" s="1"/>
       <c r="X32" t="s">
         <v>12</v>
       </c>
@@ -5763,54 +5829,56 @@
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:31">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>142</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="3">
         <v>89863449</v>
       </c>
+      <c r="R33" s="1"/>
       <c r="X33" t="s">
         <v>12</v>
       </c>
@@ -5837,54 +5905,56 @@
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:31">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>540</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="3" t="s">
         <v>330</v>
       </c>
+      <c r="R34" s="1"/>
       <c r="X34" t="s">
         <v>12</v>
       </c>
@@ -5911,54 +5981,56 @@
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:31">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>402</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="3">
         <v>23400524</v>
       </c>
+      <c r="R35" s="1"/>
       <c r="X35" t="s">
         <v>12</v>
       </c>
@@ -5985,54 +6057,56 @@
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:31">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>701</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="3">
         <v>29876360</v>
       </c>
+      <c r="R36" s="1"/>
       <c r="X36" t="s">
         <v>12</v>
       </c>
@@ -6059,54 +6133,56 @@
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:31">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>152</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="3">
         <v>62385566</v>
       </c>
+      <c r="R37" s="1"/>
       <c r="X37" t="s">
         <v>12</v>
       </c>
@@ -6133,51 +6209,54 @@
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:31">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O38" t="s">
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="3">
         <v>18002400357</v>
       </c>
+      <c r="R38" s="1"/>
       <c r="X38" t="s">
         <v>12</v>
       </c>
@@ -6204,54 +6283,56 @@
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:31">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <v>402</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="3" t="s">
         <v>377</v>
       </c>
+      <c r="R39" s="1"/>
       <c r="X39" t="s">
         <v>12</v>
       </c>
@@ -6278,54 +6359,56 @@
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:31">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>382</v>
       </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <v>540</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="3">
         <v>2431875005</v>
       </c>
+      <c r="R40" s="1"/>
       <c r="X40" t="s">
         <v>12</v>
       </c>
@@ -6352,51 +6435,54 @@
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:31">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O41" t="s">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="3">
         <v>24841123</v>
       </c>
+      <c r="R41" s="1"/>
       <c r="X41" t="s">
         <v>12</v>
       </c>
@@ -6423,54 +6509,56 @@
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:31">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="1">
         <v>142</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="3">
         <v>47820100</v>
       </c>
+      <c r="R42" s="1"/>
       <c r="X42" t="s">
         <v>12</v>
       </c>
@@ -6497,54 +6585,56 @@
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:31">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>411</v>
       </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="1">
         <v>450</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="3" t="s">
         <v>416</v>
       </c>
+      <c r="R43" s="1"/>
       <c r="X43" t="s">
         <v>12</v>
       </c>
@@ -6571,51 +6661,54 @@
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:31">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>420</v>
       </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="1">
         <v>405</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="3">
         <v>13840399618</v>
       </c>
+      <c r="R44" s="1"/>
       <c r="X44" t="s">
         <v>12</v>
       </c>
@@ -6642,54 +6735,56 @@
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:31">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="1">
         <v>402</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="3">
         <v>89625456</v>
       </c>
+      <c r="R45" s="1"/>
       <c r="X45" t="s">
         <v>12</v>
       </c>
@@ -6716,54 +6811,56 @@
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:31">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="1">
         <v>459</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="3">
         <v>89781488</v>
       </c>
+      <c r="R46" s="1"/>
       <c r="X46" t="s">
         <v>12</v>
       </c>
@@ -6790,51 +6887,54 @@
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:31">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="L47" t="s">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <v>543</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="3">
         <v>23305109</v>
       </c>
+      <c r="R47" s="1"/>
       <c r="X47" t="s">
         <v>12</v>
       </c>
@@ -6861,54 +6961,56 @@
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:31">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>455</v>
       </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="1">
         <v>568</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="3">
         <v>18904055363</v>
       </c>
+      <c r="R48" s="1"/>
       <c r="X48" t="s">
         <v>12</v>
       </c>
@@ -6935,57 +7037,58 @@
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:31">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="1">
         <v>106</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49" s="3">
         <v>89657988</v>
       </c>
+      <c r="R49" s="1"/>
       <c r="X49" t="s">
         <v>12</v>
       </c>
@@ -7006,57 +7109,58 @@
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:31">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>476</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="1">
         <v>160</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" s="3" t="s">
         <v>482</v>
       </c>
+      <c r="R50" s="1"/>
       <c r="X50" t="s">
         <v>12</v>
       </c>
@@ -7080,51 +7184,54 @@
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:31">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>487</v>
       </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O51" t="s">
+      <c r="N51" s="1"/>
+      <c r="O51" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="3">
         <v>6897100</v>
       </c>
+      <c r="R51" s="1"/>
       <c r="X51" t="s">
         <v>12</v>
       </c>
@@ -7145,54 +7252,56 @@
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:31">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>498</v>
       </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="1">
         <v>160</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="3" t="s">
         <v>503</v>
       </c>
+      <c r="R52" s="1"/>
       <c r="X52" t="s">
         <v>12</v>
       </c>
@@ -7213,54 +7322,56 @@
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:31">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>508</v>
       </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="1">
         <v>102</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="Q53" s="3" t="s">
         <v>514</v>
       </c>
+      <c r="R53" s="1"/>
       <c r="X53" t="s">
         <v>12</v>
       </c>
@@ -7281,51 +7392,54 @@
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:31">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>519</v>
       </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="1">
         <v>140</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="3">
         <v>62833687</v>
       </c>
+      <c r="R54" s="1"/>
       <c r="X54" t="s">
         <v>12</v>
       </c>
@@ -7346,54 +7460,56 @@
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:31">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>529</v>
       </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="1">
         <v>102</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="3">
         <v>31666666</v>
       </c>
+      <c r="R55" s="1"/>
       <c r="X55" t="s">
         <v>12</v>
       </c>
@@ -7414,54 +7530,56 @@
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:31">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="1">
         <v>140</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="3">
         <v>88215766</v>
       </c>
+      <c r="R56" s="1"/>
       <c r="X56" t="s">
         <v>12</v>
       </c>
@@ -7482,54 +7600,56 @@
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:31">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>547</v>
       </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="1">
         <v>102</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="Q57" s="3" t="s">
         <v>553</v>
       </c>
+      <c r="R57" s="1"/>
       <c r="X57" t="s">
         <v>12</v>
       </c>
@@ -7550,54 +7670,56 @@
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:31">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>558</v>
       </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="1">
         <v>101</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="3">
         <v>13606283758</v>
       </c>
+      <c r="R58" s="1"/>
       <c r="X58" t="s">
         <v>12</v>
       </c>
@@ -7618,54 +7740,56 @@
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:31">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>570</v>
       </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="1">
         <v>100</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="Q59" s="3" t="s">
         <v>575</v>
       </c>
+      <c r="R59" s="1"/>
       <c r="X59" t="s">
         <v>12</v>
       </c>
@@ -7686,51 +7810,54 @@
       </c>
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:31">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>579</v>
       </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="1">
         <v>120</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60" s="3">
         <v>18782604333</v>
       </c>
+      <c r="R60" s="1"/>
       <c r="X60" t="s">
         <v>12</v>
       </c>
@@ -7751,51 +7878,54 @@
       </c>
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:31">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O61" t="s">
+      <c r="N61" s="1"/>
+      <c r="O61" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="Q61" s="3" t="s">
         <v>592</v>
       </c>
+      <c r="R61" s="1"/>
       <c r="X61" t="s">
         <v>12</v>
       </c>
@@ -7816,54 +7946,56 @@
       </c>
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:31">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>597</v>
       </c>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="1">
         <v>102</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="3">
         <v>88261181</v>
       </c>
+      <c r="R62" s="1"/>
       <c r="X62" t="s">
         <v>12</v>
       </c>
@@ -7884,54 +8016,56 @@
       </c>
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:31">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="1">
         <v>100</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="Q63" s="3" t="s">
         <v>612</v>
       </c>
+      <c r="R63" s="1"/>
       <c r="X63" t="s">
         <v>12</v>
       </c>
@@ -7952,54 +8086,56 @@
       </c>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:31">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="1">
         <v>140</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="Q64" s="3">
         <v>89864263</v>
       </c>
+      <c r="R64" s="1"/>
       <c r="X64" t="s">
         <v>12</v>
       </c>
@@ -8020,54 +8156,56 @@
       </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:31">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>626</v>
       </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="1">
         <v>140</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="Q65" s="3" t="s">
         <v>631</v>
       </c>
+      <c r="R65" s="1"/>
       <c r="X65" t="s">
         <v>12</v>
       </c>
@@ -8088,54 +8226,56 @@
       </c>
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:31">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="1">
         <v>150</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q66" s="3">
         <v>89655628</v>
       </c>
+      <c r="R66" s="1"/>
       <c r="X66" t="s">
         <v>12</v>
       </c>
@@ -8156,54 +8296,56 @@
       </c>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:31">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
         <v>160</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="Q67" s="3">
         <v>2431238539</v>
       </c>
+      <c r="R67" s="1"/>
       <c r="X67" t="s">
         <v>12</v>
       </c>
@@ -8224,54 +8366,56 @@
       </c>
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:31">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="1">
         <v>170</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q68" s="3">
         <v>15998895942</v>
       </c>
+      <c r="R68" s="1"/>
       <c r="X68" t="s">
         <v>12</v>
       </c>
@@ -8292,54 +8436,56 @@
       </c>
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:31">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="1">
         <v>170</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="3">
         <v>62299938</v>
       </c>
+      <c r="R69" s="1"/>
       <c r="X69" t="s">
         <v>12</v>
       </c>
@@ -8360,48 +8506,52 @@
       </c>
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:31">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O70" t="s">
+      <c r="N70" s="1"/>
+      <c r="O70" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="1"/>
       <c r="X70" t="s">
         <v>12</v>
       </c>
@@ -8422,51 +8572,54 @@
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:31">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>679</v>
       </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O71" t="s">
+      <c r="N71" s="1"/>
+      <c r="O71" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="Q71" s="3" t="s">
         <v>685</v>
       </c>
+      <c r="R71" s="1"/>
       <c r="X71" t="s">
         <v>12</v>
       </c>
@@ -8487,51 +8640,54 @@
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:31">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>690</v>
       </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O72" t="s">
+      <c r="N72" s="1"/>
+      <c r="O72" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="3">
         <v>88086575</v>
       </c>
+      <c r="R72" s="1"/>
       <c r="X72" t="s">
         <v>12</v>
       </c>
@@ -8552,51 +8708,54 @@
       </c>
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:31">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O73" t="s">
+      <c r="N73" s="1"/>
+      <c r="O73" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="Q73" s="3" t="s">
         <v>704</v>
       </c>
+      <c r="R73" s="1"/>
       <c r="X73" t="s">
         <v>12</v>
       </c>
@@ -8617,51 +8776,54 @@
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:31">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>709</v>
       </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O74" t="s">
+      <c r="N74" s="1"/>
+      <c r="O74" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="Q74" s="3" t="s">
         <v>716</v>
       </c>
+      <c r="R74" s="1"/>
       <c r="X74" t="s">
         <v>12</v>
       </c>
@@ -8682,51 +8844,54 @@
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:31">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>721</v>
       </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O75" t="s">
+      <c r="N75" s="1"/>
+      <c r="O75" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="3">
         <v>89609286</v>
       </c>
+      <c r="R75" s="1"/>
       <c r="X75" t="s">
         <v>12</v>
       </c>
@@ -8747,51 +8912,54 @@
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:31">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O76" t="s">
+      <c r="N76" s="1"/>
+      <c r="O76" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="Q76" s="3">
         <v>83501502</v>
       </c>
+      <c r="R76" s="1"/>
       <c r="X76" t="s">
         <v>12</v>
       </c>
@@ -8812,48 +8980,52 @@
       </c>
     </row>
     <row r="77" ht="30" customHeight="1" spans="1:31">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O77" t="s">
+      <c r="N77" s="1"/>
+      <c r="O77" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="1"/>
       <c r="X77" t="s">
         <v>12</v>
       </c>
@@ -8874,54 +9046,56 @@
       </c>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:31">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>745</v>
       </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="1">
         <v>104</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="Q78" s="3">
         <v>18602441477</v>
       </c>
+      <c r="R78" s="1"/>
       <c r="X78" t="s">
         <v>12</v>
       </c>
@@ -8942,48 +9116,52 @@
       </c>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:31">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>753</v>
       </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O79" t="s">
+      <c r="N79" s="1"/>
+      <c r="O79" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q79" s="3">
         <v>2431293185</v>
       </c>
+      <c r="R79" s="1"/>
       <c r="X79" t="s">
         <v>12</v>
       </c>
@@ -9004,54 +9182,56 @@
       </c>
     </row>
     <row r="80" ht="30" customHeight="1" spans="1:31">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>761</v>
       </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="1">
         <v>200</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="Q80" s="3" t="s">
         <v>767</v>
       </c>
+      <c r="R80" s="1"/>
       <c r="X80" t="s">
         <v>12</v>
       </c>
@@ -9072,54 +9252,56 @@
       </c>
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:31">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>772</v>
       </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="1">
         <v>500</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="Q81" s="3">
         <v>73185835092</v>
       </c>
+      <c r="R81" s="1"/>
       <c r="X81" t="s">
         <v>12</v>
       </c>
@@ -9140,54 +9322,56 @@
       </c>
     </row>
     <row r="82" spans="1:31">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>455</v>
       </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="1">
         <v>400</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="Q82" s="3">
         <v>18640036161</v>
       </c>
+      <c r="R82" s="1"/>
       <c r="X82" t="s">
         <v>12</v>
       </c>
